--- a/info_xlsx/지역별_아파트_정보.xlsx
+++ b/info_xlsx/지역별_아파트_정보.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlsdn_q9bmeyr\Desktop\proejct\stock-crawling-bot\info_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFCF7E9-3B40-476F-86A1-3F8032A096F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D7AC64-D2D1-458D-BAEA-C2820AF2DBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="안양" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="3599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5448" uniqueCount="3598">
   <si>
     <t>사업장_이름</t>
   </si>
@@ -10784,10 +10784,6 @@
   </si>
   <si>
     <t>중흥S-클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK뷰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11273,7 +11269,7 @@
         <v>3503</v>
       </c>
       <c r="F1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -16481,7 +16477,7 @@
         <v>3503</v>
       </c>
       <c r="F1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -16623,7 +16619,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="D9">
         <v>126.925809</v>
@@ -16742,7 +16738,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -17815,7 +17811,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="D77">
         <v>126.91522500000001</v>
@@ -18603,7 +18599,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="D123">
         <v>126.925355</v>
@@ -18623,7 +18619,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="D124">
         <v>126.92404999999999</v>
@@ -19048,7 +19044,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="D149">
         <v>126.919791</v>
@@ -19473,7 +19469,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="D174">
         <v>126.91935100000001</v>
@@ -21573,8 +21569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F246"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -21602,7 +21598,7 @@
         <v>3503</v>
       </c>
       <c r="F1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -21742,7 +21738,7 @@
         <v>2165</v>
       </c>
       <c r="F8" t="s">
-        <v>3566</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -21813,7 +21809,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="D12">
         <v>127.035686</v>
@@ -21827,7 +21823,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -21850,7 +21846,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="D14">
         <v>127.033535</v>
@@ -21901,13 +21897,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D17">
         <v>126.95927500000001</v>
@@ -21916,7 +21912,7 @@
         <v>37.254061999999998</v>
       </c>
       <c r="F17" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -22010,7 +22006,7 @@
         <v>2210</v>
       </c>
       <c r="F22" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -22021,7 +22017,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="D23">
         <v>126.946128</v>
@@ -22061,7 +22057,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="D25">
         <v>126.963204</v>
@@ -22070,7 +22066,7 @@
         <v>37.247266000000003</v>
       </c>
       <c r="F25" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -22090,7 +22086,7 @@
         <v>2219</v>
       </c>
       <c r="F26" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -22187,7 +22183,7 @@
         <v>2239</v>
       </c>
       <c r="F31" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -22224,7 +22220,7 @@
         <v>2247</v>
       </c>
       <c r="F33" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -22244,7 +22240,7 @@
         <v>2251</v>
       </c>
       <c r="F34" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -22286,7 +22282,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -22505,7 +22501,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
@@ -22665,12 +22661,12 @@
         <v>2341</v>
       </c>
       <c r="F57" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
@@ -22722,7 +22718,7 @@
         <v>2352</v>
       </c>
       <c r="F60" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -22733,7 +22729,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="D61">
         <v>126.96041099999999</v>
@@ -23031,7 +23027,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -23159,7 +23155,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -23509,7 +23505,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -23629,7 +23625,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="D110">
         <v>126.952793</v>
@@ -23655,7 +23651,7 @@
         <v>2544</v>
       </c>
       <c r="F111" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
@@ -23712,7 +23708,7 @@
         <v>2556</v>
       </c>
       <c r="F114" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -23856,7 +23852,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
@@ -24118,7 +24114,7 @@
         <v>2647</v>
       </c>
       <c r="F137" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -24513,7 +24509,7 @@
         <v>2732</v>
       </c>
       <c r="F159" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
@@ -24782,7 +24778,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="B175" t="s">
         <v>4</v>
@@ -24797,7 +24793,7 @@
         <v>2794</v>
       </c>
       <c r="F175" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.4">
@@ -24874,7 +24870,7 @@
         <v>2810</v>
       </c>
       <c r="F179" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.4">
@@ -25387,7 +25383,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="B209" t="s">
         <v>4</v>
@@ -25439,7 +25435,7 @@
         <v>2931</v>
       </c>
       <c r="F211" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.4">
@@ -25566,7 +25562,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -25885,7 +25881,7 @@
         <v>3027</v>
       </c>
       <c r="F236" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.4">
@@ -26068,7 +26064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -26096,7 +26092,7 @@
         <v>3503</v>
       </c>
       <c r="F1" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -26427,7 +26423,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -26853,7 +26849,7 @@
         <v>3234</v>
       </c>
       <c r="F45" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -27582,7 +27578,7 @@
         <v>3234</v>
       </c>
       <c r="F87" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -27707,7 +27703,7 @@
         <v>3234</v>
       </c>
       <c r="F94" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -27815,7 +27811,7 @@
         <v>3431</v>
       </c>
       <c r="F100" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -27869,7 +27865,7 @@
         <v>3234</v>
       </c>
       <c r="F103" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
@@ -28448,7 +28444,7 @@
         <v>3234</v>
       </c>
       <c r="F136" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
@@ -28573,7 +28569,7 @@
         <v>3234</v>
       </c>
       <c r="F143" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
@@ -28681,7 +28677,7 @@
         <v>3431</v>
       </c>
       <c r="F149" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
@@ -28735,7 +28731,7 @@
         <v>3234</v>
       </c>
       <c r="F152" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -29317,7 +29313,7 @@
         <v>3234</v>
       </c>
       <c r="F185" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.4">
@@ -29550,7 +29546,7 @@
         <v>3431</v>
       </c>
       <c r="F198" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.4">
@@ -29604,7 +29600,7 @@
         <v>3234</v>
       </c>
       <c r="F201" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.4">
